--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63911.46870717674</v>
+        <v>-72438.70811653536</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33681031.2617314</v>
+        <v>33654759.71765641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12624245.48192202</v>
+        <v>12802115.96047481</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2971706.153572012</v>
+        <v>2919087.33527595</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1856318563248</v>
+        <v>335.3329239508594</v>
       </c>
       <c r="F11" t="n">
-        <v>371.5724976088932</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>49.60563018141188</v>
+        <v>49.60563018141229</v>
       </c>
       <c r="T12" t="n">
         <v>126.0091317304331</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.74836107591605</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
         <v>133.1999654356588</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>20.03072413038795</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D14" t="n">
+        <v>329.8062372308943</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>127.0782932421083</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H15" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166521</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T15" t="n">
         <v>126.0091317304331</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>52.79194428408667</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>188.3852960275783</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.7166363522986</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>171.009054910744</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.66264858537679</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>68.2079037639955</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>194.4222881462134</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>272.6207125031721</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>118.5107003182341</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.2696174801114</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>241.7296061197607</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>377.1490434284245</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>378.43076365762</v>
       </c>
     </row>
     <row r="24">
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>111.6422214141411</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.26552708628013</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>154.5590415092951</v>
       </c>
       <c r="W26" t="n">
-        <v>399.2805564346983</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.3388892342509</v>
@@ -2733,7 +2733,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>16.16448673103504</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>11.19714051717097</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,20 +2791,20 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="C29" t="n">
-        <v>23.32949336652073</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
+        <v>265.4401554364729</v>
+      </c>
+      <c r="F29" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1485438681774</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>190.3986770698941</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>194.4222881462136</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>407.8481493585725</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3198,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3593008718695</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>45.9832564507994</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D35" t="n">
-        <v>368.3379045390506</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E35" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>170.2746305933879</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>83.57378464968886</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
         <v>275.6161358490523</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.5836915229197</v>
       </c>
     </row>
     <row r="38">
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>48.69559944263715</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>333.20259965116</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,22 +3663,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>4.835140522446419</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8720855447433</v>
+        <v>135.9028272103763</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>338.7054872701706</v>
       </c>
       <c r="D41" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>368.3379045390506</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>50.34043547081663</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>177.7093724451294</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>368.3379045390509</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>247.1678758805585</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.52738940623971</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.17482029426311</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T45" t="n">
-        <v>124.8306395731037</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.71416123637758</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>161.5840468716809</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1253.60006400461</v>
+        <v>794.5847048991973</v>
       </c>
       <c r="C11" t="n">
-        <v>1253.60006400461</v>
+        <v>794.5847048991973</v>
       </c>
       <c r="D11" t="n">
-        <v>831.1903348568071</v>
+        <v>794.5847048991973</v>
       </c>
       <c r="E11" t="n">
-        <v>408.7806057090042</v>
+        <v>455.864579696309</v>
       </c>
       <c r="F11" t="n">
         <v>33.45485054850599</v>
@@ -5038,19 +5038,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524191</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099025</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968686</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5062,31 +5062,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q11" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R11" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S11" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T11" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>794.5847048991973</v>
       </c>
       <c r="X11" t="n">
-        <v>1253.60006400461</v>
+        <v>794.5847048991973</v>
       </c>
       <c r="Y11" t="n">
-        <v>1253.60006400461</v>
+        <v>794.5847048991973</v>
       </c>
     </row>
     <row r="12">
@@ -5096,61 +5096,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453952</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F12" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G12" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H12" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I12" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J12" t="n">
-        <v>124.2518767018075</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K12" t="n">
-        <v>237.9898955472398</v>
+        <v>398.3279547357986</v>
       </c>
       <c r="L12" t="n">
-        <v>390.9246980282439</v>
+        <v>551.2627572168027</v>
       </c>
       <c r="M12" t="n">
-        <v>569.3923990549604</v>
+        <v>729.7304582435194</v>
       </c>
       <c r="N12" t="n">
-        <v>795.7488901748552</v>
+        <v>912.9216682691948</v>
       </c>
       <c r="O12" t="n">
-        <v>963.3330580404652</v>
+        <v>1080.505836134805</v>
       </c>
       <c r="P12" t="n">
-        <v>1097.834127233839</v>
+        <v>1215.006905328178</v>
       </c>
       <c r="Q12" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R12" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S12" t="n">
         <v>1622.635830272358</v>
       </c>
       <c r="T12" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U12" t="n">
         <v>1319.064612101715</v>
@@ -5159,13 +5159,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.4653279679911</v>
+        <v>848.1358055382746</v>
       </c>
       <c r="C13" t="n">
-        <v>514.4653279679911</v>
+        <v>675.5740940214995</v>
       </c>
       <c r="D13" t="n">
-        <v>514.4653279679911</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="E13" t="n">
-        <v>344.7073242187284</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F13" t="n">
-        <v>168.0002701804846</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G13" t="n">
         <v>168.0002701804846</v>
@@ -5202,49 +5202,49 @@
         <v>161.7834697148434</v>
       </c>
       <c r="K13" t="n">
-        <v>505.1482476164479</v>
+        <v>359.9133944508748</v>
       </c>
       <c r="L13" t="n">
-        <v>919.1520231542094</v>
+        <v>447.7058679834639</v>
       </c>
       <c r="M13" t="n">
-        <v>1011.716877081226</v>
+        <v>861.7096435212254</v>
       </c>
       <c r="N13" t="n">
-        <v>1102.08074567448</v>
+        <v>952.0735121144792</v>
       </c>
       <c r="O13" t="n">
-        <v>1185.546404136305</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P13" t="n">
         <v>1449.542946114066</v>
       </c>
       <c r="Q13" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R13" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S13" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T13" t="n">
-        <v>1672.742527425299</v>
+        <v>1652.50947274814</v>
       </c>
       <c r="U13" t="n">
-        <v>1394.342390204034</v>
+        <v>1652.50947274814</v>
       </c>
       <c r="V13" t="n">
-        <v>1107.386882074465</v>
+        <v>1365.55396461857</v>
       </c>
       <c r="W13" t="n">
-        <v>835.3604776607565</v>
+        <v>1093.527560204862</v>
       </c>
       <c r="X13" t="n">
-        <v>589.968722994169</v>
+        <v>848.1358055382746</v>
       </c>
       <c r="Y13" t="n">
-        <v>589.968722994169</v>
+        <v>848.1358055382746</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>859.6009491359861</v>
+        <v>1211.411922208652</v>
       </c>
       <c r="C14" t="n">
-        <v>859.6009491359861</v>
+        <v>789.0021930608486</v>
       </c>
       <c r="D14" t="n">
-        <v>437.1912199881831</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E14" t="n">
-        <v>437.1912199881831</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F14" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G14" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H14" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524228</v>
       </c>
       <c r="J14" t="n">
-        <v>195.5292216073327</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K14" t="n">
-        <v>362.984928209903</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L14" t="n">
         <v>570.7285396968689</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5299,31 +5299,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q14" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R14" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S14" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T14" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U14" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V14" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="W14" t="n">
-        <v>1267.887072836333</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="X14" t="n">
-        <v>1267.887072836333</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="Y14" t="n">
-        <v>859.6009491359861</v>
+        <v>1211.411922208652</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C15" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E15" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G15" t="n">
-        <v>68.24978812594551</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H15" t="n">
         <v>33.45485054850599</v>
@@ -5357,28 +5357,28 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J15" t="n">
-        <v>308.4175519197772</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K15" t="n">
-        <v>722.4213274575388</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L15" t="n">
-        <v>875.3561299385429</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M15" t="n">
-        <v>1053.82383096526</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N15" t="n">
-        <v>1237.015040990935</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O15" t="n">
-        <v>1404.599208856545</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P15" t="n">
-        <v>1539.100278049918</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q15" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R15" t="n">
         <v>1672.742527425299</v>
@@ -5387,7 +5387,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T15" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U15" t="n">
         <v>1319.064612101715</v>
@@ -5396,13 +5396,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W15" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X15" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y15" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.9199083360126</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="C16" t="n">
-        <v>379.9199083360126</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D16" t="n">
         <v>379.9199083360126</v>
@@ -5442,10 +5442,10 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L16" t="n">
-        <v>769.1447895942089</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M16" t="n">
-        <v>861.7096435212255</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N16" t="n">
         <v>952.0735121144794</v>
@@ -5466,22 +5466,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.437390511417</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U16" t="n">
-        <v>1376.112194264865</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V16" t="n">
-        <v>1089.156686135296</v>
+        <v>1482.454349619665</v>
       </c>
       <c r="W16" t="n">
-        <v>817.1302817215872</v>
+        <v>1210.427945205956</v>
       </c>
       <c r="X16" t="n">
-        <v>571.7385270549996</v>
+        <v>965.0361905393688</v>
       </c>
       <c r="Y16" t="n">
-        <v>571.7385270549996</v>
+        <v>737.616519853477</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>878.2743088441118</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C17" t="n">
         <v>455.8645796963089</v>
       </c>
       <c r="D17" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E17" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F17" t="n">
         <v>33.45485054850599</v>
@@ -5512,7 +5512,7 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J17" t="n">
         <v>195.529221607333</v>
@@ -5521,10 +5521,10 @@
         <v>362.9849282099033</v>
       </c>
       <c r="L17" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5533,10 +5533,10 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P17" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q17" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R17" t="n">
         <v>1672.742527425299</v>
@@ -5548,16 +5548,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V17" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="W17" t="n">
-        <v>1267.887072836333</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="X17" t="n">
-        <v>878.2743088441118</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="Y17" t="n">
         <v>878.2743088441118</v>
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C18" t="n">
-        <v>425.5107626718882</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E18" t="n">
-        <v>236.3000591453952</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594551</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H18" t="n">
         <v>33.45485054850599</v>
@@ -5624,7 +5624,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T18" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U18" t="n">
         <v>1319.064612101715</v>
@@ -5633,13 +5633,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W18" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.2711249150091</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.7236161035248</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="C19" t="n">
-        <v>210.1619045867498</v>
+        <v>845.3320977707623</v>
       </c>
       <c r="D19" t="n">
-        <v>210.1619045867498</v>
+        <v>679.454104972285</v>
       </c>
       <c r="E19" t="n">
-        <v>210.1619045867498</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F19" t="n">
-        <v>33.45485054850599</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H19" t="n">
         <v>33.45485054850599</v>
@@ -5673,22 +5673,22 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
-        <v>75.20378455015359</v>
+        <v>147.9063075498999</v>
       </c>
       <c r="K19" t="n">
-        <v>143.8101078806224</v>
+        <v>216.5126308803687</v>
       </c>
       <c r="L19" t="n">
-        <v>557.8138834183841</v>
+        <v>304.3051044129577</v>
       </c>
       <c r="M19" t="n">
-        <v>971.8176589561456</v>
+        <v>718.3088799507193</v>
       </c>
       <c r="N19" t="n">
-        <v>1385.821434493907</v>
+        <v>1132.312655488481</v>
       </c>
       <c r="O19" t="n">
-        <v>1469.287092955733</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P19" t="n">
         <v>1617.735720978399</v>
@@ -5703,22 +5703,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>1280.695918248114</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U19" t="n">
-        <v>1280.695918248114</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V19" t="n">
-        <v>993.7404101185448</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="W19" t="n">
-        <v>721.7140057048364</v>
+        <v>1455.104182673112</v>
       </c>
       <c r="X19" t="n">
-        <v>476.3222510382489</v>
+        <v>1209.712428006525</v>
       </c>
       <c r="Y19" t="n">
-        <v>476.3222510382489</v>
+        <v>1209.712428006525</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>905.2701227701591</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="C20" t="n">
-        <v>905.2701227701591</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="D20" t="n">
-        <v>905.2701227701591</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E20" t="n">
-        <v>708.8839731275193</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F20" t="n">
-        <v>708.8839731275193</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G20" t="n">
         <v>308.8293076224172</v>
@@ -5749,19 +5749,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524211</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968687</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847203</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5782,22 +5782,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T20" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U20" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V20" t="n">
-        <v>1310.125577359126</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="W20" t="n">
-        <v>905.2701227701591</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="X20" t="n">
-        <v>905.2701227701591</v>
+        <v>717.1154313227638</v>
       </c>
       <c r="Y20" t="n">
-        <v>905.2701227701591</v>
+        <v>308.8293076224172</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C21" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E21" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F21" t="n">
-        <v>152.9162207615566</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594554</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H21" t="n">
         <v>33.45485054850599</v>
@@ -5873,10 +5873,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X21" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y21" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>523.5216541782927</v>
+        <v>371.8945548637583</v>
       </c>
       <c r="C22" t="n">
-        <v>350.9599426615176</v>
+        <v>199.3328433469833</v>
       </c>
       <c r="D22" t="n">
-        <v>350.9599426615176</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E22" t="n">
-        <v>181.2019389122549</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F22" t="n">
         <v>33.45485054850599</v>
@@ -5913,7 +5913,7 @@
         <v>161.7834697148434</v>
       </c>
       <c r="K22" t="n">
-        <v>355.1410140564473</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L22" t="n">
         <v>769.1447895942089</v>
@@ -5943,19 +5943,19 @@
         <v>1280.695918248114</v>
       </c>
       <c r="U22" t="n">
-        <v>1002.295781026849</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V22" t="n">
-        <v>715.3402728972799</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="W22" t="n">
-        <v>715.3402728972799</v>
+        <v>1036.524598935225</v>
       </c>
       <c r="X22" t="n">
-        <v>715.3402728972799</v>
+        <v>791.1328442686372</v>
       </c>
       <c r="Y22" t="n">
-        <v>715.3402728972799</v>
+        <v>563.7131735827454</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>836.8232094219902</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="C23" t="n">
-        <v>414.4134802741873</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="D23" t="n">
-        <v>414.4134802741873</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E23" t="n">
-        <v>414.4134802741873</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F23" t="n">
-        <v>414.4134802741873</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G23" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H23" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J23" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K23" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L23" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N23" t="n">
         <v>1036.7784573317</v>
@@ -6010,7 +6010,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q23" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R23" t="n">
         <v>1672.742527425299</v>
@@ -6022,19 +6022,19 @@
         <v>1458.555008901416</v>
       </c>
       <c r="U23" t="n">
-        <v>1199.440159488164</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V23" t="n">
-        <v>836.8232094219902</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="W23" t="n">
-        <v>836.8232094219902</v>
+        <v>691.0826042462759</v>
       </c>
       <c r="X23" t="n">
-        <v>836.8232094219902</v>
+        <v>691.0826042462759</v>
       </c>
       <c r="Y23" t="n">
-        <v>836.8232094219902</v>
+        <v>308.8293076224172</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I24" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J24" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K24" t="n">
-        <v>237.9898955472398</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L24" t="n">
-        <v>390.9246980282439</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M24" t="n">
-        <v>569.3923990549604</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N24" t="n">
-        <v>752.5836090806357</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O24" t="n">
-        <v>1166.587384618397</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P24" t="n">
-        <v>1539.100278049918</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q24" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R24" t="n">
         <v>1672.742527425299</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.7979011344898</v>
+        <v>487.9206022113881</v>
       </c>
       <c r="C25" t="n">
-        <v>545.7979011344898</v>
+        <v>487.9206022113881</v>
       </c>
       <c r="D25" t="n">
-        <v>379.9199083360126</v>
+        <v>487.9206022113881</v>
       </c>
       <c r="E25" t="n">
-        <v>210.1619045867498</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F25" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G25" t="n">
         <v>33.45485054850599</v>
@@ -6153,16 +6153,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L25" t="n">
-        <v>592.940721149037</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M25" t="n">
-        <v>685.5055750760537</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N25" t="n">
-        <v>1099.509350613815</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O25" t="n">
-        <v>1378.12365616191</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P25" t="n">
         <v>1449.542946114066</v>
@@ -6174,25 +6174,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S25" t="n">
-        <v>1575.504621277542</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T25" t="n">
-        <v>1332.19948436366</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U25" t="n">
-        <v>1332.19948436366</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V25" t="n">
-        <v>1045.24397623409</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="W25" t="n">
-        <v>773.2175718203816</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="X25" t="n">
-        <v>773.2175718203816</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="Y25" t="n">
-        <v>545.7979011344898</v>
+        <v>487.9206022113881</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J26" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099025</v>
       </c>
       <c r="L26" t="n">
-        <v>570.7285396968687</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847202</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6247,7 +6247,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q26" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R26" t="n">
         <v>1672.742527425299</v>
@@ -6256,16 +6256,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T26" t="n">
-        <v>1458.555008901416</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U26" t="n">
-        <v>1199.440159488164</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V26" t="n">
-        <v>836.8232094219902</v>
+        <v>1257.507434063264</v>
       </c>
       <c r="W26" t="n">
-        <v>433.509516053608</v>
+        <v>852.6519794742974</v>
       </c>
       <c r="X26" t="n">
         <v>433.509516053608</v>
@@ -6302,28 +6302,28 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I27" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J27" t="n">
-        <v>448.8102016680198</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>562.5482205134522</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L27" t="n">
-        <v>715.4830229944563</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M27" t="n">
-        <v>893.9507240211728</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N27" t="n">
-        <v>1077.141934046848</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O27" t="n">
-        <v>1244.726101912458</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P27" t="n">
-        <v>1379.227171105832</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q27" t="n">
         <v>1511.8379027716</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.3087624508162</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="C28" t="n">
-        <v>502.7470509340412</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D28" t="n">
-        <v>502.7470509340412</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E28" t="n">
-        <v>332.9890471847784</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F28" t="n">
-        <v>332.9890471847784</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0002701804846</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H28" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I28" t="n">
         <v>33.45485054850599</v>
@@ -6387,22 +6387,22 @@
         <v>75.20378455015359</v>
       </c>
       <c r="K28" t="n">
-        <v>143.8101078806224</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L28" t="n">
-        <v>557.8138834183841</v>
+        <v>506.3610359843471</v>
       </c>
       <c r="M28" t="n">
-        <v>971.8176589561456</v>
+        <v>598.9258899113638</v>
       </c>
       <c r="N28" t="n">
-        <v>1132.312655488481</v>
+        <v>689.2897585046177</v>
       </c>
       <c r="O28" t="n">
-        <v>1546.316431026242</v>
+        <v>1103.293534042379</v>
       </c>
       <c r="P28" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q28" t="n">
         <v>1667.182735391305</v>
@@ -6414,22 +6414,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T28" t="n">
-        <v>1524.001055161996</v>
+        <v>1507.673290787214</v>
       </c>
       <c r="U28" t="n">
-        <v>1245.600917940732</v>
+        <v>1507.673290787214</v>
       </c>
       <c r="V28" t="n">
-        <v>958.6454098111619</v>
+        <v>1507.673290787214</v>
       </c>
       <c r="W28" t="n">
-        <v>686.6190053974535</v>
+        <v>1507.673290787214</v>
       </c>
       <c r="X28" t="n">
-        <v>675.3087624508162</v>
+        <v>1507.673290787214</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.3087624508162</v>
+        <v>1280.253620101322</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>479.4297245109763</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="C29" t="n">
+        <v>1146.395677971862</v>
+      </c>
+      <c r="D29" t="n">
+        <v>723.9859488240593</v>
+      </c>
+      <c r="E29" t="n">
         <v>455.8645796963089</v>
       </c>
-      <c r="D29" t="n">
-        <v>455.8645796963089</v>
-      </c>
-      <c r="E29" t="n">
-        <v>33.45485054850599</v>
-      </c>
       <c r="F29" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G29" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H29" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968687</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847202</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6484,31 +6484,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q29" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R29" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T29" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U29" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V29" t="n">
-        <v>1310.125577359126</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="W29" t="n">
-        <v>1310.125577359126</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="X29" t="n">
-        <v>1310.125577359126</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="Y29" t="n">
-        <v>901.8394536587792</v>
+        <v>1146.395677971862</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H30" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I30" t="n">
         <v>83.76937108752902</v>
       </c>
       <c r="J30" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K30" t="n">
-        <v>264.0535687076974</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L30" t="n">
-        <v>416.9883711887014</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M30" t="n">
-        <v>595.4560722154181</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N30" t="n">
-        <v>778.6472822410934</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O30" t="n">
-        <v>1080.505836134805</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P30" t="n">
-        <v>1215.006905328178</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q30" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R30" t="n">
         <v>1672.742527425299</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>203.2128542977687</v>
+        <v>852.9050322832435</v>
       </c>
       <c r="C31" t="n">
-        <v>203.2128542977687</v>
+        <v>680.3433207664684</v>
       </c>
       <c r="D31" t="n">
-        <v>203.2128542977687</v>
+        <v>514.4653279679911</v>
       </c>
       <c r="E31" t="n">
-        <v>33.45485054850599</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="F31" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J31" t="n">
         <v>75.20378455015359</v>
       </c>
       <c r="K31" t="n">
-        <v>216.5126308803687</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L31" t="n">
-        <v>304.3051044129577</v>
+        <v>557.813883418384</v>
       </c>
       <c r="M31" t="n">
-        <v>718.3088799507193</v>
+        <v>650.3787373454007</v>
       </c>
       <c r="N31" t="n">
-        <v>1132.312655488481</v>
+        <v>740.7426059386545</v>
       </c>
       <c r="O31" t="n">
-        <v>1546.316431026242</v>
+        <v>1154.746381476416</v>
       </c>
       <c r="P31" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q31" t="n">
         <v>1667.182735391305</v>
@@ -6648,25 +6648,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T31" t="n">
-        <v>1433.19854372007</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U31" t="n">
-        <v>1154.798406498805</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V31" t="n">
-        <v>867.8428983692352</v>
+        <v>1237.045547032427</v>
       </c>
       <c r="W31" t="n">
-        <v>867.8428983692352</v>
+        <v>1237.045547032427</v>
       </c>
       <c r="X31" t="n">
-        <v>622.4511437026476</v>
+        <v>1044.723651002231</v>
       </c>
       <c r="Y31" t="n">
-        <v>395.0314730167559</v>
+        <v>1044.723651002231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>855.9192452014109</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C32" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D32" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E32" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F32" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G32" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H32" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I32" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524223</v>
       </c>
       <c r="J32" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L32" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6718,34 +6718,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P32" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q32" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R32" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S32" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T32" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U32" t="n">
-        <v>1672.742527425299</v>
+        <v>1476.35637778266</v>
       </c>
       <c r="V32" t="n">
-        <v>1672.742527425299</v>
+        <v>1113.739427716486</v>
       </c>
       <c r="W32" t="n">
-        <v>1267.887072836333</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="X32" t="n">
-        <v>855.9192452014109</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="Y32" t="n">
-        <v>855.9192452014109</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="33">
@@ -6761,16 +6761,16 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D33" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E33" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F33" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G33" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H33" t="n">
         <v>33.45485054850599</v>
@@ -6779,28 +6779,28 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J33" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K33" t="n">
-        <v>564.3193254000266</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L33" t="n">
-        <v>717.2541278810307</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M33" t="n">
-        <v>895.7218289077473</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N33" t="n">
-        <v>1078.913038933423</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O33" t="n">
-        <v>1246.497206799032</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P33" t="n">
-        <v>1380.998275992406</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q33" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R33" t="n">
         <v>1672.742527425299</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.6273879521309</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C34" t="n">
-        <v>547.0656764353558</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D34" t="n">
-        <v>381.1876836368785</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E34" t="n">
-        <v>211.4296798876158</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F34" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G34" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H34" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I34" t="n">
         <v>33.45485054850599</v>
@@ -6864,46 +6864,46 @@
         <v>418.568562451758</v>
       </c>
       <c r="L34" t="n">
-        <v>506.3610359843471</v>
+        <v>832.5723379895196</v>
       </c>
       <c r="M34" t="n">
-        <v>598.9258899113638</v>
+        <v>925.1371919165364</v>
       </c>
       <c r="N34" t="n">
-        <v>1012.929665449125</v>
+        <v>1015.50106050979</v>
       </c>
       <c r="O34" t="n">
-        <v>1426.933440986887</v>
+        <v>1098.966718971616</v>
       </c>
       <c r="P34" t="n">
-        <v>1498.352730939043</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q34" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R34" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S34" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T34" t="n">
-        <v>1524.001055161996</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="U34" t="n">
-        <v>1524.001055161996</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="V34" t="n">
-        <v>1237.045547032427</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="W34" t="n">
-        <v>965.0191426187184</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="X34" t="n">
-        <v>719.6273879521309</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="Y34" t="n">
-        <v>719.6273879521309</v>
+        <v>910.178231370252</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1672.742527425299</v>
+        <v>1050.268885201069</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.332798277496</v>
+        <v>627.8591560532664</v>
       </c>
       <c r="D35" t="n">
-        <v>878.2743088441116</v>
+        <v>205.4494269054635</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8645796963088</v>
+        <v>205.4494269054635</v>
       </c>
       <c r="F35" t="n">
-        <v>33.45485054850598</v>
+        <v>205.4494269054635</v>
       </c>
       <c r="G35" t="n">
         <v>33.45485054850598</v>
@@ -6934,19 +6934,19 @@
         <v>33.45485054850598</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524206</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L35" t="n">
-        <v>570.7285396968686</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8833353847201</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N35" t="n">
         <v>1036.7784573317</v>
@@ -6967,22 +6967,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T35" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U35" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V35" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="W35" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="X35" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="Y35" t="n">
-        <v>1672.742527425299</v>
+        <v>1050.268885201069</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>33.45485054850598</v>
       </c>
       <c r="I36" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J36" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L36" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M36" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N36" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O36" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P36" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q36" t="n">
         <v>1511.8379027716</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>589.9687229941685</v>
+        <v>552.4816198527876</v>
       </c>
       <c r="C37" t="n">
-        <v>417.4070114773934</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="D37" t="n">
-        <v>417.4070114773934</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E37" t="n">
-        <v>417.4070114773934</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F37" t="n">
-        <v>332.9890471847784</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H37" t="n">
         <v>33.45485054850598</v>
@@ -7095,25 +7095,25 @@
         <v>33.45485054850598</v>
       </c>
       <c r="J37" t="n">
-        <v>75.20378455015357</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K37" t="n">
-        <v>143.8101078806224</v>
+        <v>230.3897930453123</v>
       </c>
       <c r="L37" t="n">
-        <v>231.6025814132115</v>
+        <v>318.1822665779014</v>
       </c>
       <c r="M37" t="n">
-        <v>645.6063569509729</v>
+        <v>718.3088799507191</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.610132488735</v>
+        <v>1132.312655488481</v>
       </c>
       <c r="O37" t="n">
-        <v>1473.613908026496</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P37" t="n">
-        <v>1545.033197978652</v>
+        <v>1617.735720978398</v>
       </c>
       <c r="Q37" t="n">
         <v>1667.182735391305</v>
@@ -7125,22 +7125,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T37" t="n">
-        <v>1672.742527425299</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U37" t="n">
-        <v>1394.342390204034</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V37" t="n">
-        <v>1107.386882074464</v>
+        <v>864.0817451605826</v>
       </c>
       <c r="W37" t="n">
-        <v>835.360477660756</v>
+        <v>864.0817451605826</v>
       </c>
       <c r="X37" t="n">
-        <v>589.9687229941685</v>
+        <v>864.0817451605826</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.9687229941685</v>
+        <v>744.3002385717748</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>878.2743088441116</v>
+        <v>433.509516053608</v>
       </c>
       <c r="C38" t="n">
-        <v>878.2743088441116</v>
+        <v>433.509516053608</v>
       </c>
       <c r="D38" t="n">
-        <v>878.2743088441116</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E38" t="n">
-        <v>455.8645796963088</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F38" t="n">
-        <v>33.45485054850598</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G38" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H38" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524206</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J38" t="n">
         <v>195.5292216073326</v>
@@ -7180,10 +7180,10 @@
         <v>362.9849282099029</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968686</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7195,31 +7195,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q38" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R38" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S38" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T38" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U38" t="n">
-        <v>1619.698045908998</v>
+        <v>1623.555053240817</v>
       </c>
       <c r="V38" t="n">
-        <v>1619.698045908998</v>
+        <v>1260.938103174644</v>
       </c>
       <c r="W38" t="n">
-        <v>1214.842591320031</v>
+        <v>1260.938103174644</v>
       </c>
       <c r="X38" t="n">
-        <v>878.2743088441116</v>
+        <v>841.7956397539547</v>
       </c>
       <c r="Y38" t="n">
-        <v>878.2743088441116</v>
+        <v>433.509516053608</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H39" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I39" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J39" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K39" t="n">
-        <v>264.0535687076974</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L39" t="n">
-        <v>551.2627572168027</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M39" t="n">
-        <v>729.7304582435193</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N39" t="n">
-        <v>912.9216682691947</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O39" t="n">
-        <v>1080.505836134805</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P39" t="n">
-        <v>1215.006905328178</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q39" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R39" t="n">
         <v>1672.742527425299</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>723.2435929769683</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C40" t="n">
-        <v>550.6818814601933</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D40" t="n">
-        <v>384.803888661716</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E40" t="n">
-        <v>215.0458849124532</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F40" t="n">
-        <v>38.33883087420944</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G40" t="n">
-        <v>38.33883087420944</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H40" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I40" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J40" t="n">
-        <v>75.20378455015357</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K40" t="n">
-        <v>143.8101078806224</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L40" t="n">
-        <v>231.6025814132115</v>
+        <v>506.3610359843471</v>
       </c>
       <c r="M40" t="n">
-        <v>550.1161050863867</v>
+        <v>598.9258899113638</v>
       </c>
       <c r="N40" t="n">
-        <v>964.1198806241483</v>
+        <v>689.2897585046177</v>
       </c>
       <c r="O40" t="n">
-        <v>1378.12365616191</v>
+        <v>1103.293534042379</v>
       </c>
       <c r="P40" t="n">
         <v>1449.542946114066</v>
@@ -7362,22 +7362,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T40" t="n">
-        <v>1429.437390511417</v>
+        <v>1535.466944384515</v>
       </c>
       <c r="U40" t="n">
-        <v>1429.437390511417</v>
+        <v>1257.06680716325</v>
       </c>
       <c r="V40" t="n">
-        <v>1142.481882381847</v>
+        <v>970.1112990336808</v>
       </c>
       <c r="W40" t="n">
-        <v>1142.481882381847</v>
+        <v>698.0848946199724</v>
       </c>
       <c r="X40" t="n">
-        <v>1142.481882381847</v>
+        <v>452.6931399533848</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.0622116959555</v>
+        <v>225.2734692674931</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>878.2743088441116</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="C41" t="n">
-        <v>878.2743088441116</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D41" t="n">
-        <v>455.8645796963088</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E41" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F41" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G41" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H41" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J41" t="n">
         <v>195.5292216073324</v>
       </c>
       <c r="K41" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L41" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M41" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N41" t="n">
         <v>1036.7784573317</v>
@@ -7444,19 +7444,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U41" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V41" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="W41" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="X41" t="n">
-        <v>1300.684037991914</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="Y41" t="n">
-        <v>1300.684037991914</v>
+        <v>1051.010727945873</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H42" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I42" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J42" t="n">
         <v>474.8738748284774</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.6525586130211</v>
+        <v>154.8449673612998</v>
       </c>
       <c r="C43" t="n">
-        <v>369.0908470962461</v>
+        <v>154.8449673612998</v>
       </c>
       <c r="D43" t="n">
-        <v>203.2128542977687</v>
+        <v>154.8449673612998</v>
       </c>
       <c r="E43" t="n">
-        <v>33.45485054850598</v>
+        <v>154.8449673612998</v>
       </c>
       <c r="F43" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="G43" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J43" t="n">
-        <v>75.20378455015357</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K43" t="n">
-        <v>143.8101078806224</v>
+        <v>192.7956718448434</v>
       </c>
       <c r="L43" t="n">
-        <v>557.8138834183839</v>
+        <v>606.799447382605</v>
       </c>
       <c r="M43" t="n">
-        <v>650.3787373454006</v>
+        <v>699.3643013096217</v>
       </c>
       <c r="N43" t="n">
-        <v>789.728169902875</v>
+        <v>789.7281699028755</v>
       </c>
       <c r="O43" t="n">
         <v>1203.731945440637</v>
       </c>
       <c r="P43" t="n">
-        <v>1617.735720978398</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q43" t="n">
         <v>1667.182735391305</v>
@@ -7599,22 +7599,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T43" t="n">
-        <v>1672.742527425299</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U43" t="n">
-        <v>1672.742527425299</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V43" t="n">
-        <v>1385.787019295729</v>
+        <v>864.0817451605828</v>
       </c>
       <c r="W43" t="n">
-        <v>1206.282602684488</v>
+        <v>592.0553407468744</v>
       </c>
       <c r="X43" t="n">
-        <v>960.8908480179</v>
+        <v>346.6635860802869</v>
       </c>
       <c r="Y43" t="n">
-        <v>733.4711773320082</v>
+        <v>346.6635860802869</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.555602307688</v>
+        <v>1250.332798277497</v>
       </c>
       <c r="C44" t="n">
-        <v>1166.555602307688</v>
+        <v>827.9230691296937</v>
       </c>
       <c r="D44" t="n">
-        <v>730.6458174821328</v>
+        <v>405.5133399818907</v>
       </c>
       <c r="E44" t="n">
-        <v>296.8710726404279</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F44" t="n">
-        <v>296.8710726404279</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G44" t="n">
-        <v>296.8710726404279</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.710627381563</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W44" t="n">
-        <v>1592.855172792596</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X44" t="n">
-        <v>1592.855172792596</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="Y44" t="n">
-        <v>1592.855172792596</v>
+        <v>1672.742527425299</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.5713050663908</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235849</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.861364220108</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599445</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.947661807679</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R45" t="n">
-        <v>1676.651116233592</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S45" t="n">
-        <v>1632.030085633326</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>1505.938530508979</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U45" t="n">
-        <v>1329.66869333286</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V45" t="n">
-        <v>1130.551175394859</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280532</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669332</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461539</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>199.3328433469833</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>199.3328433469833</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>832.5723379895196</v>
       </c>
       <c r="M46" t="n">
-        <v>875.5973915434845</v>
+        <v>925.1371919165364</v>
       </c>
       <c r="N46" t="n">
-        <v>1445.355106505019</v>
+        <v>1339.140967454298</v>
       </c>
       <c r="O46" t="n">
-        <v>1982.790237078562</v>
+        <v>1422.606625916124</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>1509.526318464005</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1231.126181242741</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>944.170673113171</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.311674774551</v>
+        <v>672.1442686994626</v>
       </c>
       <c r="X46" t="n">
-        <v>1408.311674774551</v>
+        <v>426.7525140328751</v>
       </c>
       <c r="Y46" t="n">
-        <v>1180.892004088659</v>
+        <v>199.3328433469833</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>135.630692957678</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>43.60129403456506</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.3670431532728</v>
+        <v>327.367043153273</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>130.8319206116793</v>
       </c>
       <c r="L13" t="n">
-        <v>329.5063656617904</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5224767935401</v>
+        <v>346.0449349349551</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>159.698991977285</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>303.2987441336659</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,7 +9090,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>177.9839075203756</v>
+        <v>177.9839075203757</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>73.43689191893563</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>329.5063656617905</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047927</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N19" t="n">
         <v>326.9089969136442</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P19" t="n">
-        <v>77.80741219243396</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.8047027164539</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9561,10 +9561,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>126.0113343546818</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>329.5063656617904</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>248.9086946183348</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>240.4159840789371</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>326.9089969136444</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>197.1198455416861</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.13164530277413</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>329.5063656617905</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>70.83952317078933</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>333.8768859352888</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>277.6061839591223</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>135.630692957678</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>73.4368919189356</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M31" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>333.8768859352888</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>225.633610793428</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>303.2987441336659</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.698991977285</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>333.876885935289</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>281.9767042326207</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.5888788276318</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10752,19 +10752,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>324.6857794047926</v>
+        <v>310.6684438846474</v>
       </c>
       <c r="N37" t="n">
         <v>326.9089969136442</v>
       </c>
       <c r="O37" t="n">
-        <v>333.876885935289</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.43689191893532</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>135.6306929576781</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.3670431532728</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>228.2309795415742</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>333.8768859352888</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>277.6061839591223</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>16.8047027164539</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11220,16 +11220,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>49.48036764062721</v>
       </c>
       <c r="L43" t="n">
-        <v>329.5063656617903</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>49.48036764062704</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>333.8768859352888</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>326.9089969136444</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>192.4544649334021</v>
+        <v>124.95939910113</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.25136553696291</v>
+        <v>94.10407344242833</v>
       </c>
       <c r="F11" t="n">
-        <v>52.01625768599115</v>
+        <v>5.403123438559419</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
@@ -23311,19 +23311,19 @@
         <v>52.51403670113841</v>
       </c>
       <c r="T11" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.1520714558812</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8720855447433</v>
+        <v>220.8413614143554</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D14" t="n">
-        <v>13.36505512097506</v>
+        <v>101.7444497464056</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5104620527761</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G14" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.0456433386444</v>
@@ -23557,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23658,7 +23658,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
-        <v>222.8241915649656</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>95.70065702069556</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C17" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>396.054118850051</v>
@@ -23788,19 +23788,19 @@
         <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>29.23440243418378</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>233.1942075525991</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.23778394642045</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>69.83578017384922</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>201.0982366055759</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>235.0147092470744</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>52.51403670113841</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>296.4403384682483</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>28.67036601774993</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.3388892342509</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>27.57653424981066</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -24220,10 +24220,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>18.90507542162652</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>25.77249880572305</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>56.41820229762905</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.1999654356588</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.9885304543897</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -24496,19 +24496,19 @@
         <v>52.51403670113841</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>204.4317390562167</v>
       </c>
       <c r="W26" t="n">
-        <v>1.526343608378681</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8720855447433</v>
+        <v>224.7075988137082</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7406966027507</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>410.4315547218902</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097511</v>
       </c>
       <c r="E29" t="n">
-        <v>11.25136553696291</v>
+        <v>163.9968419568149</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559533</v>
       </c>
       <c r="G29" t="n">
         <v>396.054118850051</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H31" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>69.83578017384922</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3.723541676565901</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>52.53916005002756</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T32" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5237009191198</v>
+        <v>62.10141277290623</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.102889427909929</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.58068262599184</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.3388892342509</v>
@@ -25095,7 +25095,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>223.322883918772</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>15.57541623208618</v>
+        <v>15.57541623208613</v>
       </c>
       <c r="D35" t="n">
-        <v>63.21278243824929</v>
+        <v>13.36505512097511</v>
       </c>
       <c r="E35" t="n">
-        <v>11.25136553696302</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>5.403123438559589</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.054118850051</v>
+        <v>225.7794882566631</v>
       </c>
       <c r="H35" t="n">
         <v>272.6207125031721</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T35" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.5237009191198</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>91.36619884817247</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I37" t="n">
         <v>69.83578017384922</v>
@@ -25365,7 +25365,7 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>106.5617824561131</v>
       </c>
     </row>
     <row r="38">
@@ -25399,13 +25399,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>11.25136553696302</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>5.403123438559589</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>272.6207125031721</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T38" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5237009191198</v>
+        <v>207.8281014764827</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>81.74843913532243</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
-        <v>128.3648249132124</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
         <v>69.83578017384922</v>
@@ -25602,19 +25602,19 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>104.969258334367</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.850942923733953</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>95.05556081824034</v>
       </c>
       <c r="D41" t="n">
-        <v>13.36505512097517</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>11.25136553696302</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T41" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>46.61313424743179</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>124.5995480270447</v>
       </c>
       <c r="G43" t="n">
         <v>163.3388892342509</v>
@@ -25806,7 +25806,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I43" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>91.59676792444199</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>61.09909285423686</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H44" t="n">
-        <v>19.85646006097019</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.1862712954197</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>79.28803867306237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>336415.5618172586</v>
+        <v>336415.5618172587</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>336415.5618172586</v>
+        <v>336415.5618172587</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>336415.5618172587</v>
+        <v>336415.5618172586</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>336415.5618172585</v>
+        <v>336415.5618172586</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>336415.5618172587</v>
+        <v>336415.5618172585</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>336415.5618172585</v>
+        <v>336415.5618172586</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>336415.5618172586</v>
+        <v>336415.5618172585</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>336415.5618172585</v>
+        <v>336415.5618172587</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>336415.5618172585</v>
+        <v>336415.5618172587</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427534.3301612417</v>
+        <v>336415.5618172586</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +26355,7 @@
         <v>103464.9542517201</v>
       </c>
       <c r="P2" t="n">
-        <v>133702.9356056947</v>
+        <v>103464.9542517201</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.7529837591</v>
+        <v>390603.7529837592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>131103.9139949619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26435,19 +26435,19 @@
         <v>14210.98180735127</v>
       </c>
       <c r="H4" t="n">
-        <v>14210.98180735127</v>
+        <v>14210.98180735126</v>
       </c>
       <c r="I4" t="n">
         <v>14210.98180735127</v>
       </c>
       <c r="J4" t="n">
-        <v>14210.98180735125</v>
+        <v>14210.98180735126</v>
       </c>
       <c r="K4" t="n">
         <v>14210.98180735126</v>
       </c>
       <c r="L4" t="n">
-        <v>14210.98180735127</v>
+        <v>14210.98180735126</v>
       </c>
       <c r="M4" t="n">
         <v>14210.98180735126</v>
@@ -26459,7 +26459,7 @@
         <v>14210.98180735126</v>
       </c>
       <c r="P4" t="n">
-        <v>11163.53558956959</v>
+        <v>14210.98180735126</v>
       </c>
     </row>
     <row r="5">
@@ -26502,16 +26502,16 @@
         <v>32636.50261996421</v>
       </c>
       <c r="M5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="N5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="O5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>32636.50261996421</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-333986.2831593545</v>
+        <v>-334718.0340811292</v>
       </c>
       <c r="F6" t="n">
-        <v>56617.46982440464</v>
+        <v>55885.71890262991</v>
       </c>
       <c r="G6" t="n">
-        <v>56617.46982440463</v>
+        <v>55885.71890262987</v>
       </c>
       <c r="H6" t="n">
-        <v>56617.46982440463</v>
+        <v>55885.71890262989</v>
       </c>
       <c r="I6" t="n">
-        <v>56617.46982440464</v>
+        <v>55885.71890262991</v>
       </c>
       <c r="J6" t="n">
-        <v>56617.46982440462</v>
+        <v>55885.71890262988</v>
       </c>
       <c r="K6" t="n">
-        <v>56617.46982440461</v>
+        <v>55885.71890262989</v>
       </c>
       <c r="L6" t="n">
-        <v>56617.46982440462</v>
+        <v>55885.7189026299</v>
       </c>
       <c r="M6" t="n">
-        <v>-47596.06237671894</v>
+        <v>-48327.81329849365</v>
       </c>
       <c r="N6" t="n">
-        <v>56617.4698244046</v>
+        <v>55885.71890262994</v>
       </c>
       <c r="O6" t="n">
-        <v>56617.4698244046</v>
+        <v>55885.71890262991</v>
       </c>
       <c r="P6" t="n">
-        <v>-54615.59518847454</v>
+        <v>55885.71890262991</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="G3" t="n">
         <v>330.7713854632871</v>
@@ -26758,7 +26758,7 @@
         <v>330.7713854632872</v>
       </c>
       <c r="I3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="J3" t="n">
         <v>330.7713854632872</v>
@@ -26767,19 +26767,19 @@
         <v>330.7713854632872</v>
       </c>
       <c r="L3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="M3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="N3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="O3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>330.7713854632872</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F4" t="n">
         <v>418.1856318563248</v>
@@ -26819,19 +26819,19 @@
         <v>418.1856318563248</v>
       </c>
       <c r="L4" t="n">
+        <v>418.1856318563249</v>
+      </c>
+      <c r="M4" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M4" t="n">
-        <v>418.1856318563247</v>
-      </c>
       <c r="N4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>418.1856318563248</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>135.9305426299341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,32 +27020,32 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>418.1856318563249</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>418.1856318563247</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>171.8962625056094</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,19 +31752,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H11" t="n">
         <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351109</v>
       </c>
       <c r="J11" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K11" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L11" t="n">
         <v>209.8420318050159</v>
@@ -31776,7 +31776,7 @@
         <v>237.2677999464442</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P11" t="n">
         <v>191.2174419853368</v>
@@ -31785,13 +31785,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219385</v>
       </c>
       <c r="S11" t="n">
         <v>30.30131837686295</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047395</v>
       </c>
       <c r="U11" t="n">
         <v>0.1063787370334189</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229197</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284515</v>
       </c>
       <c r="I12" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J12" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872331</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -31858,10 +31858,10 @@
         <v>169.27693723799</v>
       </c>
       <c r="P12" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305199</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R12" t="n">
         <v>44.17358238319147</v>
@@ -31870,10 +31870,10 @@
         <v>13.21525299468887</v>
       </c>
       <c r="T12" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796982</v>
       </c>
       <c r="H13" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870412</v>
       </c>
       <c r="I13" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J13" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K13" t="n">
         <v>69.2993164954231</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153213</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268062</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103592</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137002</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495637</v>
       </c>
       <c r="R13" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S13" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T13" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U13" t="n">
         <v>0.03253489037343812</v>
@@ -31995,7 +31995,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -32004,13 +32004,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667434</v>
@@ -32022,13 +32022,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S14" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I15" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
@@ -32098,10 +32098,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S15" t="n">
         <v>13.21525299468887</v>
@@ -32110,7 +32110,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H16" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I16" t="n">
         <v>17.9375695592222</v>
@@ -32159,25 +32159,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R16" t="n">
         <v>26.81959463117078</v>
@@ -32189,7 +32189,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -32715,13 +32715,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667434</v>
@@ -32733,13 +32733,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I24" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
@@ -32809,10 +32809,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
@@ -32821,7 +32821,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H25" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I25" t="n">
         <v>17.9375695592222</v>
@@ -32870,25 +32870,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R25" t="n">
         <v>26.81959463117078</v>
@@ -32900,7 +32900,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I32" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J32" t="n">
         <v>112.8595291536268</v>
@@ -33426,13 +33426,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O32" t="n">
         <v>224.0452553667434</v>
@@ -33444,13 +33444,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T32" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U32" t="n">
         <v>0.1063787370334189</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H33" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I33" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K33" t="n">
         <v>114.8868877226589</v>
@@ -33520,10 +33520,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R33" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S33" t="n">
         <v>13.21525299468887</v>
@@ -33532,7 +33532,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H34" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I34" t="n">
         <v>17.9375695592222</v>
@@ -33581,25 +33581,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P34" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R34" t="n">
         <v>26.81959463117078</v>
@@ -33611,7 +33611,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I35" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J35" t="n">
         <v>112.8595291536268</v>
@@ -33663,13 +33663,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O35" t="n">
         <v>224.0452553667434</v>
@@ -33681,13 +33681,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S35" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T35" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U35" t="n">
         <v>0.1063787370334189</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H36" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I36" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J36" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K36" t="n">
         <v>114.8868877226589</v>
@@ -33757,10 +33757,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R36" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S36" t="n">
         <v>13.21525299468887</v>
@@ -33769,7 +33769,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H37" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I37" t="n">
         <v>17.9375695592222</v>
@@ -33818,25 +33818,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M37" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O37" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P37" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R37" t="n">
         <v>26.81959463117078</v>
@@ -33848,7 +33848,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I38" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J38" t="n">
         <v>112.8595291536268</v>
@@ -33900,13 +33900,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667434</v>
@@ -33918,13 +33918,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S38" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T38" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U38" t="n">
         <v>0.1063787370334189</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H39" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I39" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J39" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K39" t="n">
         <v>114.8868877226589</v>
@@ -33994,10 +33994,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R39" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S39" t="n">
         <v>13.21525299468887</v>
@@ -34006,7 +34006,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H40" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I40" t="n">
         <v>17.9375695592222</v>
@@ -34055,25 +34055,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R40" t="n">
         <v>26.81959463117078</v>
@@ -34085,7 +34085,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I41" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536268</v>
@@ -34137,13 +34137,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667434</v>
@@ -34155,13 +34155,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S41" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T41" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U41" t="n">
         <v>0.1063787370334189</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H42" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I42" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J42" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K42" t="n">
         <v>114.8868877226589</v>
@@ -34231,10 +34231,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R42" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S42" t="n">
         <v>13.21525299468887</v>
@@ -34243,7 +34243,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H43" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I43" t="n">
         <v>17.9375695592222</v>
@@ -34292,25 +34292,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L43" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R43" t="n">
         <v>26.81959463117078</v>
@@ -34322,7 +34322,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968723</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.003849430238249</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183764</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048099</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J11" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K11" t="n">
-        <v>169.1471783864345</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050161</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
         <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P11" t="n">
         <v>191.2174419853368</v>
@@ -35433,7 +35433,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219416</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.49580543289438</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J12" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K12" t="n">
-        <v>114.8868877226589</v>
+        <v>250.5175806803369</v>
       </c>
       <c r="L12" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M12" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N12" t="n">
-        <v>228.6429203231261</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P12" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="R12" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,28 +35570,28 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K13" t="n">
-        <v>346.8331089915197</v>
+        <v>200.1312371071024</v>
       </c>
       <c r="L13" t="n">
-        <v>418.1856318563248</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N13" t="n">
         <v>91.27663494268052</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P13" t="n">
-        <v>266.66317371491</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q13" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488951</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536272</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K14" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050161</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667433</v>
@@ -35667,10 +35667,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J15" t="n">
-        <v>226.9173543760083</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K15" t="n">
-        <v>418.1856318563248</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L15" t="n">
         <v>154.4795984656607</v>
@@ -35749,7 +35749,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,13 +35810,13 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L16" t="n">
-        <v>266.66317371491</v>
+        <v>266.6631737149102</v>
       </c>
       <c r="M16" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268063</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O16" t="n">
         <v>84.30874592103589</v>
@@ -35828,7 +35828,7 @@
         <v>219.8381709871101</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>50.85195676437968</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050157</v>
       </c>
       <c r="M17" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570465</v>
+        <v>115.6075323246403</v>
       </c>
       <c r="K19" t="n">
         <v>69.29931649542308</v>
       </c>
       <c r="L19" t="n">
-        <v>418.1856318563249</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M19" t="n">
         <v>418.1856318563248</v>
@@ -36056,10 +36056,10 @@
         <v>418.1856318563248</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103601</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P19" t="n">
-        <v>149.9481091138039</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q19" t="n">
         <v>49.9464792049564</v>
@@ -36126,16 +36126,16 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N20" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
@@ -36220,10 +36220,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.6232914195059</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R21" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K22" t="n">
-        <v>195.3106508501048</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>418.1856318563248</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M22" t="n">
         <v>93.49985245153209</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J23" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K23" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O23" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P23" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
@@ -36451,16 +36451,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>418.1856318563248</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P24" t="n">
-        <v>376.2756499308296</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,25 +36521,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453442</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M25" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N25" t="n">
-        <v>418.1856318563249</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
-        <v>281.4285914627221</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q25" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J26" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K26" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864345</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050161</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P26" t="n">
         <v>191.2174419853368</v>
@@ -36618,7 +36618,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J27" t="n">
         <v>395.0550542837863</v>
@@ -36679,7 +36679,7 @@
         <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
-        <v>154.4795984656608</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
         <v>180.2704050774914</v>
@@ -36694,7 +36694,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.9502340058261</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R27" t="n">
         <v>162.5299238926257</v>
@@ -36755,25 +36755,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L28" t="n">
-        <v>418.1856318563249</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M28" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
-        <v>162.11615811347</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O28" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136991</v>
+        <v>349.7468808804922</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R28" t="n">
         <v>5.615951549488948</v>
@@ -36831,7 +36831,7 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J29" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K29" t="n">
         <v>169.1471783864346</v>
@@ -36846,7 +36846,7 @@
         <v>237.2677999464443</v>
       </c>
       <c r="O29" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P29" t="n">
         <v>191.2174419853368</v>
@@ -36855,7 +36855,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J30" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K30" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L30" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M30" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N30" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>304.9076301956679</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P30" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K31" t="n">
-        <v>142.7362084143587</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M31" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N31" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O31" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692136991</v>
+        <v>297.7743077147979</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R31" t="n">
         <v>5.615951549488948</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J32" t="n">
         <v>112.8595291536268</v>
@@ -37077,22 +37077,22 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P32" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>50.82274801921519</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J33" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
-        <v>418.1856318563248</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L33" t="n">
         <v>154.4795984656607</v>
@@ -37162,16 +37162,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P33" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.517580680337</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R33" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,25 +37232,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M34" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N34" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O34" t="n">
-        <v>418.1856318563248</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P34" t="n">
-        <v>72.14069692136991</v>
+        <v>354.1174011539906</v>
       </c>
       <c r="Q34" t="n">
-        <v>170.5353580325882</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R34" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J35" t="n">
         <v>112.8595291536268</v>
@@ -37311,13 +37311,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
         <v>224.0452553667433</v>
@@ -37326,7 +37326,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q35" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
         <v>83.52891675219394</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>50.82274801921518</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J36" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L36" t="n">
         <v>154.4795984656607</v>
@@ -37399,16 +37399,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P36" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R36" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K37" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M37" t="n">
-        <v>418.1856318563247</v>
+        <v>404.1682963361795</v>
       </c>
       <c r="N37" t="n">
         <v>418.1856318563248</v>
@@ -37484,10 +37484,10 @@
         <v>72.14069692136991</v>
       </c>
       <c r="Q37" t="n">
-        <v>123.3833711238917</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R37" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J38" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K38" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M38" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O38" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P38" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J39" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L39" t="n">
-        <v>290.1102914233388</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M39" t="n">
         <v>180.2704050774914</v>
@@ -37636,16 +37636,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P39" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>418.1856318563248</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R39" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,28 +37703,28 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>69.2993164954231</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M40" t="n">
-        <v>321.7308319931063</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N40" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O40" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692136991</v>
+        <v>349.7468808804922</v>
       </c>
       <c r="Q40" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R40" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536268</v>
@@ -37785,22 +37785,22 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
         <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O41" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P41" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R41" t="n">
         <v>83.52891675219394</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J42" t="n">
         <v>395.0550542837863</v>
@@ -37873,16 +37873,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P42" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.6232914195059</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R42" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,16 +37940,16 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>69.2993164954231</v>
+        <v>118.7796841360503</v>
       </c>
       <c r="L43" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M43" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N43" t="n">
-        <v>140.7570025833076</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O43" t="n">
         <v>418.1856318563248</v>
@@ -37961,7 +37961,7 @@
         <v>49.9464792049564</v>
       </c>
       <c r="R43" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P46" t="n">
-        <v>294.2413903654056</v>
+        <v>197.1000960224999</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
